--- a/results/Outside.NoTexture.translation.xlsx
+++ b/results/Outside.NoTexture.translation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>min-er</t>
+  </si>
+  <si>
+    <t>fm2d</t>
+  </si>
+  <si>
+    <t>fvr</t>
+  </si>
+  <si>
+    <t>percent</t>
   </si>
 </sst>
 </file>
@@ -622,11 +634,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537324280"/>
-        <c:axId val="537326632"/>
+        <c:axId val="198909288"/>
+        <c:axId val="198909680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="537324280"/>
+        <c:axId val="198909288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537326632"/>
+        <c:crossAx val="198909680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537326632"/>
+        <c:axId val="198909680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -718,7 +730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537324280"/>
+        <c:crossAx val="198909288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,11 +1629,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432247464"/>
-        <c:axId val="432241192"/>
+        <c:axId val="198905368"/>
+        <c:axId val="198910856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432247464"/>
+        <c:axId val="198905368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,7 +1642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432241192"/>
+        <c:crossAx val="198910856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1638,7 +1650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432241192"/>
+        <c:axId val="198910856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1651,7 +1663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432247464"/>
+        <c:crossAx val="198905368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2173,11 +2185,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="432241584"/>
-        <c:axId val="432241976"/>
+        <c:axId val="198907328"/>
+        <c:axId val="198904976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432241584"/>
+        <c:axId val="198907328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432241976"/>
+        <c:crossAx val="198904976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432241976"/>
+        <c:axId val="198904976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2269,7 +2281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432241584"/>
+        <c:crossAx val="198907328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2324,7 +2336,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2364,15 +2376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2392,7 +2404,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="6038850" y="428624"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2703,10 +2715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,7 +3150,7 @@
         <v>2.1822499999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3168,7 +3180,7 @@
         <v>3.3410799999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3198,7 +3210,7 @@
         <v>6.26973</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3228,7 +3240,7 @@
         <v>24.296199999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3258,7 +3270,7 @@
         <v>22.546399999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3288,7 +3300,7 @@
         <v>3.32151</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3318,7 +3330,7 @@
         <v>17.000800000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3348,7 +3360,7 @@
         <v>25.1447</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3378,7 +3390,7 @@
         <v>15.805300000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3408,7 +3420,7 @@
         <v>6.0957699999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3438,7 +3450,7 @@
         <v>12.420199999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3468,7 +3480,7 @@
         <v>10.408899999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3498,7 +3510,7 @@
         <v>2.7557200000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3529,8 +3541,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3570,929 +3600,1564 @@
         <f>MIN(G31:I31)</f>
         <v>0.54204169139181868</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.54204169139181868</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="2">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B53" si="2">B5</f>
+        <f t="shared" ref="B32:B53" si="3">B5</f>
         <v>25.9193</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I32" si="3">C5/$B32</f>
+        <f t="shared" ref="C32:I32" si="4">C5/$B32</f>
         <v>0.13237741760001234</v>
       </c>
       <c r="D32">
+        <f t="shared" si="4"/>
+        <v>0.13267989490456919</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>8.4775823421157206E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>1.0107333145571062</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0.10291983193990578</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>0.10079361711157322</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>7.64611698618404E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J53" si="5">MIN(G32:I32)</f>
+        <v>7.64611698618404E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L53" si="6">MIN(C32:J32)</f>
+        <v>7.64611698618404E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:P53" si="7">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q54" si="8">IF($L32=J32,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:A53" si="9">A32+1</f>
+        <v>3</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="3"/>
-        <v>0.13267989490456919</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>8.4775823421157206E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>1.0107333145571062</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>0.10291983193990578</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>0.10079361711157322</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>7.64611698618404E-2</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J53" si="4">MIN(G32:I32)</f>
-        <v>7.64611698618404E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" ref="A33:A53" si="5">A32+1</f>
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="2"/>
         <v>6.7890300000000003</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:I33" si="6">C6/$B33</f>
+        <f t="shared" ref="C33:I33" si="10">C6/$B33</f>
         <v>0.46568508314147972</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4694043184372436</v>
       </c>
       <c r="E33">
+        <f t="shared" si="10"/>
+        <v>0.39027961284601775</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>0.90347074618907253</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>0.45822304511837475</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>0.48228097386519136</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>0.39127386386567736</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.39127386386567736</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="6"/>
         <v>0.39027961284601775</v>
       </c>
-      <c r="F33">
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>4.6988899999999996</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:I34" si="11">C7/$B34</f>
+        <v>0.34373649947115176</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>1.3785894115418749</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>0.59331459131837527</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>1.0174998776306745</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>0.63547986864983019</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>0.55587383403314405</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>0.3664056830442935</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.3664056830442935</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="6"/>
-        <v>0.90347074618907253</v>
-      </c>
-      <c r="G33">
+        <v>0.34373649947115176</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>6.86843</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:I35" si="12">C8/$B35</f>
+        <v>5.2246292092952826</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>0.82726183421830024</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>0.40201472534480226</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="12"/>
+        <v>0.94977309224961171</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>0.57986614117054402</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>0.55766310495993987</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>0.38314432847098973</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.38314432847098973</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="6"/>
-        <v>0.45822304511837475</v>
-      </c>
-      <c r="H33">
+        <v>0.38314432847098973</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>30.050599999999999</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:I36" si="13">C9/$B36</f>
+        <v>0.14416151424597179</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>0.23148489547629666</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>0.12129907555922344</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>0.85178665317830593</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>0.13832103185959682</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>0.21093755199563405</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>0.16648652605937986</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.13832103185959682</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="6"/>
-        <v>0.48228097386519136</v>
-      </c>
-      <c r="I33">
+        <v>0.12129907555922344</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>9.5052299999999992</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:I37" si="14">C10/$B37</f>
+        <v>0.42612119854017211</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>0.63903556252715621</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>0.33516600860789275</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>1.0296952309412819</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>0.40763558588271936</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>0.73118377987697303</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>0.33481462310748927</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.33481462310748927</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="6"/>
-        <v>0.39127386386567736</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0.39127386386567736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <v>0.33481462310748927</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>17.747399999999999</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:I38" si="15">C11/$B38</f>
+        <v>0.13419881222038157</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>0.17526229194135481</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>0.10666520166334224</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>0.98349053945930109</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>0.12898959847639654</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0.15042259711281653</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0.10571576681654778</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B34">
+        <v>0.10571576681654778</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.10571576681654778</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>4.6988899999999996</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:I34" si="7">C7/$B34</f>
-        <v>0.34373649947115176</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="7"/>
-        <v>1.3785894115418749</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="7"/>
-        <v>0.59331459131837527</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
-        <v>1.0174998776306745</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
-        <v>0.63547986864983019</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
-        <v>0.55587383403314405</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="7"/>
-        <v>0.3664056830442935</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>0.3664056830442935</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="2"/>
-        <v>6.86843</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:I35" si="8">C8/$B35</f>
-        <v>5.2246292092952826</v>
-      </c>
-      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="8"/>
-        <v>0.82726183421830024</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="8"/>
-        <v>0.40201472534480226</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>0.94977309224961171</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>0.57986614117054402</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>0.55766310495993987</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="8"/>
-        <v>0.38314432847098973</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>0.38314432847098973</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>30.050599999999999</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:I36" si="9">C9/$B36</f>
-        <v>0.14416151424597179</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="9"/>
-        <v>0.23148489547629666</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="9"/>
-        <v>0.12129907555922344</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="9"/>
-        <v>0.85178665317830593</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
-        <v>0.13832103185959682</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="9"/>
-        <v>0.21093755199563405</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="9"/>
-        <v>0.16648652605937986</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>0.13832103185959682</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>9.5052299999999992</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:I37" si="10">C10/$B37</f>
-        <v>0.42612119854017211</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="10"/>
-        <v>0.63903556252715621</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="10"/>
-        <v>0.33516600860789275</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="10"/>
-        <v>1.0296952309412819</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="10"/>
-        <v>0.40763558588271936</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="10"/>
-        <v>0.73118377987697303</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="10"/>
-        <v>0.33481462310748927</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0.33481462310748927</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>17.747399999999999</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:I38" si="11">C11/$B38</f>
-        <v>0.13419881222038157</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="11"/>
-        <v>0.17526229194135481</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="11"/>
-        <v>0.10666520166334224</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="11"/>
-        <v>0.98349053945930109</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="11"/>
-        <v>0.12898959847639654</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="11"/>
-        <v>0.15042259711281653</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="11"/>
-        <v>0.10571576681654778</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>0.10571576681654778</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A38+1</f>
         <v>9</v>
       </c>
       <c r="B39">
+        <f t="shared" si="3"/>
+        <v>19.4178</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:I39" si="16">C12/$B39</f>
+        <v>0.16500839435981418</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="16"/>
+        <v>0.27441522726570466</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>0.18635993778903892</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>0.99189918528360577</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>0.1907342747376119</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>0.30935636374872538</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>0.12069029447208232</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.12069029447208232</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0.12069029447208232</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>19.4178</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:I39" si="12">C12/$B39</f>
-        <v>0.16500839435981418</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="12"/>
-        <v>0.27441522726570466</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="12"/>
-        <v>0.18635993778903892</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="12"/>
-        <v>0.99189918528360577</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="12"/>
-        <v>0.1907342747376119</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="12"/>
-        <v>0.30935636374872538</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="12"/>
-        <v>0.12069029447208232</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0.12069029447208232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>10</v>
       </c>
       <c r="B40">
+        <f t="shared" si="3"/>
+        <v>130.511</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:I40" si="17">C13/$B40</f>
+        <v>0.28229727762410833</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>8.6613388909747083E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>0.2054370895939806</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="17"/>
+        <v>0.90623778838565339</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="17"/>
+        <v>5.3319337067373629E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>4.7595988077633308E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="17"/>
+        <v>3.4633555792232075E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>3.4633555792232075E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>3.4633555792232075E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>130.511</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:I40" si="13">C13/$B40</f>
-        <v>0.28229727762410833</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="13"/>
-        <v>8.6613388909747083E-2</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="13"/>
-        <v>0.2054370895939806</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="13"/>
-        <v>0.90623778838565339</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="13"/>
-        <v>5.3319337067373629E-2</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="13"/>
-        <v>4.7595988077633308E-2</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="13"/>
-        <v>3.4633555792232075E-2</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>3.4633555792232075E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>62.237699999999997</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:I41" si="18">C14/$B41</f>
+        <v>0.73972849253748141</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="18"/>
+        <v>0.94231952658918949</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="18"/>
+        <v>0.65504348650416067</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="18"/>
+        <v>1.0183602543153105</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="18"/>
+        <v>0.77115478239073754</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="18"/>
+        <v>0.82697143371300685</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="18"/>
+        <v>0.59814710376508129</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="B41">
+        <v>0.59814710376508129</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>0.59814710376508129</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>62.237699999999997</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:I41" si="14">C14/$B41</f>
-        <v>0.73972849253748141</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="14"/>
-        <v>0.94231952658918949</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="14"/>
-        <v>0.65504348650416067</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="14"/>
-        <v>1.0183602543153105</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="14"/>
-        <v>0.77115478239073754</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="14"/>
-        <v>0.82697143371300685</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="14"/>
-        <v>0.59814710376508129</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>0.59814710376508129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>43.943100000000001</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:I43" si="19">C15/$B42</f>
+        <v>0.80150467308860773</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="19"/>
+        <v>0.77651326374334073</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="19"/>
+        <v>0.70550097740031992</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="19"/>
+        <v>0.98621399036481261</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="19"/>
+        <v>0.71266933830339685</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="19"/>
+        <v>0.68915939021143247</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="19"/>
+        <v>0.56868086229692483</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="B42">
+        <v>0.56868086229692483</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>0.56868086229692483</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>43.943100000000001</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:I43" si="15">C15/$B42</f>
-        <v>0.80150467308860773</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="15"/>
-        <v>0.77651326374334073</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="15"/>
-        <v>0.70550097740031992</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="15"/>
-        <v>0.98621399036481261</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="15"/>
-        <v>0.71266933830339685</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="15"/>
-        <v>0.68915939021143247</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="15"/>
-        <v>0.56868086229692483</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>0.56868086229692483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>6.8684799999999999</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:I43" si="20">C16/$B43</f>
+        <v>0.3602441879426016</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="19"/>
+        <v>0.87101804183749532</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="20"/>
+        <v>0.28329848816623182</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="20"/>
+        <v>1.0316387322959375</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="20"/>
+        <v>0.41251339452105856</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="20"/>
+        <v>0.90094897269847196</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="20"/>
+        <v>0.3177194954342154</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="B43">
+        <v>0.3177194954342154</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>0.28329848816623182</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>6.8684799999999999</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:I43" si="16">C16/$B43</f>
-        <v>0.3602441879426016</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="15"/>
-        <v>0.87101804183749532</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="16"/>
-        <v>0.28329848816623182</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="16"/>
-        <v>1.0316387322959375</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="16"/>
-        <v>0.41251339452105856</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="16"/>
-        <v>0.90094897269847196</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="16"/>
-        <v>0.3177194954342154</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>0.3177194954342154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>27.951899999999998</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:I44" si="21">C17/$B44</f>
+        <v>0.15103159355893517</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="21"/>
+        <v>0.14445100333072172</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="21"/>
+        <v>0.17002386242080145</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="21"/>
+        <v>0.95923711804922029</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="21"/>
+        <v>0.13396012435648383</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="21"/>
+        <v>0.25531144573356374</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="21"/>
+        <v>0.1195296205266905</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="B44">
+        <v>0.1195296205266905</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.1195296205266905</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>27.951899999999998</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ref="C44:I44" si="17">C17/$B44</f>
-        <v>0.15103159355893517</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="17"/>
-        <v>0.14445100333072172</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="17"/>
-        <v>0.17002386242080145</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="17"/>
-        <v>0.95923711804922029</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="17"/>
-        <v>0.13396012435648383</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="17"/>
-        <v>0.25531144573356374</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="17"/>
-        <v>0.1195296205266905</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>0.1195296205266905</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>16.691400000000002</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:I45" si="22">C18/$B45</f>
+        <v>0.30536803383778466</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>0.54716201157482292</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="22"/>
+        <v>0.2790263249337982</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="22"/>
+        <v>1.0350360065662556</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="22"/>
+        <v>0.4794229363624381</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>0.54396515570892789</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="22"/>
+        <v>0.3756263704662281</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="B45">
+        <v>0.3756263704662281</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>0.2790263249337982</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="2"/>
-        <v>16.691400000000002</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:I45" si="18">C18/$B45</f>
-        <v>0.30536803383778466</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="18"/>
-        <v>0.54716201157482292</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="18"/>
-        <v>0.2790263249337982</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="18"/>
-        <v>1.0350360065662556</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="18"/>
-        <v>0.4794229363624381</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="18"/>
-        <v>0.54396515570892789</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="18"/>
-        <v>0.3756263704662281</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="4"/>
-        <v>0.3756263704662281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>33.5732</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:I46" si="23">C19/$B46</f>
+        <v>0.96292578604362999</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="23"/>
+        <v>0.86690276768374774</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="23"/>
+        <v>0.64796623497313333</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="23"/>
+        <v>0.95459473627774538</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="23"/>
+        <v>0.83531209417035013</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>0.8539281331538251</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="23"/>
+        <v>0.72367841016048506</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="B46">
+        <v>0.72367841016048506</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>0.64796623497313333</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="2"/>
-        <v>33.5732</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:I46" si="19">C19/$B46</f>
-        <v>0.96292578604362999</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="19"/>
-        <v>0.86690276768374774</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="19"/>
-        <v>0.64796623497313333</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="19"/>
-        <v>0.95459473627774538</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="19"/>
-        <v>0.83531209417035013</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="19"/>
-        <v>0.8539281331538251</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="19"/>
-        <v>0.72367841016048506</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="4"/>
-        <v>0.72367841016048506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>42.767699999999998</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:I47" si="24">C20/$B47</f>
+        <v>0.70283648641381236</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="24"/>
+        <v>0.77858290251755424</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="24"/>
+        <v>0.50840704550396687</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="24"/>
+        <v>0.99986204542212942</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="24"/>
+        <v>0.87711754431498545</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="24"/>
+        <v>0.70593461888294207</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="24"/>
+        <v>0.52718289737348512</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="2"/>
-        <v>42.767699999999998</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ref="C47:I47" si="20">C20/$B47</f>
-        <v>0.70283648641381236</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="20"/>
-        <v>0.77858290251755424</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="20"/>
+        <v>0.52718289737348512</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
         <v>0.50840704550396687</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="20"/>
-        <v>0.99986204542212942</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="20"/>
-        <v>0.87711754431498545</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="20"/>
-        <v>0.70593461888294207</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="20"/>
-        <v>0.52718289737348512</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="4"/>
-        <v>0.52718289737348512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>18.4864</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:I48" si="25">C21/$B48</f>
+        <v>0.26905941665224165</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="25"/>
+        <v>0.35429234464254805</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="25"/>
+        <v>0.1914666998442098</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="25"/>
+        <v>0.93717543707806816</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="25"/>
+        <v>0.26977778258611734</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="25"/>
+        <v>0.37026138133979575</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="25"/>
+        <v>0.17967316513761469</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="5"/>
+        <v>0.17967316513761469</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>0.17967316513761469</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>31.264700000000001</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:I49" si="26">C22/$B49</f>
+        <v>0.85935256055551468</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="26"/>
+        <v>0.89204758081798319</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="26"/>
+        <v>0.54167159768045103</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="26"/>
+        <v>1.0129379140052519</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="26"/>
+        <v>0.63660294197609435</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="26"/>
+        <v>0.76177286204569372</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="26"/>
+        <v>0.54376981068105568</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>0.54376981068105568</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>0.54167159768045103</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>45.084899999999998</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:I50" si="27">C23/$B50</f>
+        <v>0.76235724155981277</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="27"/>
+        <v>0.84722601136966036</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="27"/>
+        <v>0.65470922637069173</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="27"/>
+        <v>0.99912165714019552</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="27"/>
+        <v>0.71233162322640176</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="27"/>
+        <v>0.7738821645384597</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="27"/>
+        <v>0.55771888148803705</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>0.55771888148803705</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>0.55771888148803705</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>27.156600000000001</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:I51" si="28">C24/$B51</f>
+        <v>1.1217199502146806</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="28"/>
+        <v>0.97928680320805994</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="28"/>
+        <v>0.68197786173526875</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="28"/>
+        <v>0.95268921735416068</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="28"/>
+        <v>0.97308573238181506</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="28"/>
+        <v>0.84574652202411205</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="28"/>
+        <v>0.58200584756560103</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>0.58200584756560103</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>0.58200584756560103</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>23.029900000000001</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:I52" si="29">C25/$B52</f>
+        <v>0.41581031615421687</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="29"/>
+        <v>0.69407596211881073</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="29"/>
+        <v>0.2596502807220179</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="29"/>
+        <v>1.0207208889313457</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="29"/>
+        <v>0.51757063643350598</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="29"/>
+        <v>0.62563884341660192</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="29"/>
+        <v>0.26468938206418613</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>0.26468938206418613</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="6"/>
+        <v>0.2596502807220179</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>14.3337</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:I53" si="30">C26/$B53</f>
+        <v>0.84722018739055516</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="30"/>
+        <v>0.975093660394734</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="30"/>
+        <v>0.69523361030299224</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="30"/>
+        <v>1.0068719172300242</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="30"/>
+        <v>0.97404019897165428</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="30"/>
+        <v>0.90384199473966942</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="30"/>
+        <v>0.86650341502891781</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>0.86650341502891781</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="6"/>
+        <v>0.69523361030299224</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f>ROUND(AVERAGE(C31:C53)*1000,2)</f>
+        <v>716.1</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:J54" si="31">ROUND(AVERAGE(D31:D53)*1000,2)</f>
+        <v>678.65</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="31"/>
+        <v>402.16</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="31"/>
+        <v>980.15</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="31"/>
+        <v>504.38</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="31"/>
+        <v>573.03</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="31"/>
+        <v>380.29</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="31"/>
+        <v>379.06</v>
+      </c>
+      <c r="L54" t="s">
         <v>18</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>18.4864</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:I48" si="21">C21/$B48</f>
-        <v>0.26905941665224165</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="21"/>
-        <v>0.35429234464254805</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="21"/>
-        <v>0.1914666998442098</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="21"/>
-        <v>0.93717543707806816</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="21"/>
-        <v>0.26977778258611734</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="21"/>
-        <v>0.37026138133979575</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="21"/>
-        <v>0.17967316513761469</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="4"/>
-        <v>0.17967316513761469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="2"/>
-        <v>31.264700000000001</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ref="C49:I49" si="22">C22/$B49</f>
-        <v>0.85935256055551468</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="22"/>
-        <v>0.89204758081798319</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="22"/>
-        <v>0.54167159768045103</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="22"/>
-        <v>1.0129379140052519</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="22"/>
-        <v>0.63660294197609435</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="22"/>
-        <v>0.76177286204569372</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="22"/>
-        <v>0.54376981068105568</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="4"/>
-        <v>0.54376981068105568</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="2"/>
-        <v>45.084899999999998</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:I50" si="23">C23/$B50</f>
-        <v>0.76235724155981277</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="23"/>
-        <v>0.84722601136966036</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="23"/>
-        <v>0.65470922637069173</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="23"/>
-        <v>0.99912165714019552</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="23"/>
-        <v>0.71233162322640176</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="23"/>
-        <v>0.7738821645384597</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="23"/>
-        <v>0.55771888148803705</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="4"/>
-        <v>0.55771888148803705</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="2"/>
-        <v>27.156600000000001</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:I51" si="24">C24/$B51</f>
-        <v>1.1217199502146806</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="24"/>
-        <v>0.97928680320805994</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="24"/>
-        <v>0.68197786173526875</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="24"/>
-        <v>0.95268921735416068</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="24"/>
-        <v>0.97308573238181506</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="24"/>
-        <v>0.84574652202411205</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="24"/>
-        <v>0.58200584756560103</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="4"/>
-        <v>0.58200584756560103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="2"/>
-        <v>23.029900000000001</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:I52" si="25">C25/$B52</f>
-        <v>0.41581031615421687</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="25"/>
-        <v>0.69407596211881073</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="25"/>
-        <v>0.2596502807220179</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="25"/>
-        <v>1.0207208889313457</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="25"/>
-        <v>0.51757063643350598</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="25"/>
-        <v>0.62563884341660192</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="25"/>
-        <v>0.26468938206418613</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="4"/>
-        <v>0.26468938206418613</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="2"/>
-        <v>14.3337</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53:I53" si="26">C26/$B53</f>
-        <v>0.84722018739055516</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="26"/>
-        <v>0.975093660394734</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="26"/>
-        <v>0.69523361030299224</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="26"/>
-        <v>1.0068719172300242</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="26"/>
-        <v>0.97404019897165428</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="26"/>
-        <v>0.90384199473966942</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="26"/>
-        <v>0.86650341502891781</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="4"/>
-        <v>0.86650341502891781</v>
+      <c r="M54">
+        <f>AVERAGE(M31:M53)*100</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54:Q54" si="32">AVERAGE(N31:N53)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="32"/>
+        <v>39.130434782608695</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="32"/>
+        <v>56.521739130434781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f>ROUND(M54,2)</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ref="N55:R55" si="33">ROUND(N54,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="33"/>
+        <v>39.130000000000003</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="33"/>
+        <v>56.52</v>
+      </c>
+      <c r="R55">
+        <f>SUM(M55:Q55)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
